--- a/excel/치매케어_사용자발화문_20181018_v3.xlsx
+++ b/excel/치매케어_사용자발화문_20181018_v3.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="19464" yWindow="1824" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="19464" yWindow="1824" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="소개" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="827">
   <si>
     <t>User Speech</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3311,6 +3311,18 @@
   </si>
   <si>
     <t>최신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4167,7 +4179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4178,7 +4190,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -5463,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -10679,8 +10691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -11804,8 +11816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -13811,8 +13823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -15130,7 +15142,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>
@@ -15175,11 +15187,13 @@
       <c r="L1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="B2" t="s">
         <v>235</v>
@@ -15213,6 +15227,9 @@
       </c>
       <c r="L2" t="s">
         <v>374</v>
+      </c>
+      <c r="M2" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/excel/치매케어_사용자발화문_20181018_v3.xlsx
+++ b/excel/치매케어_사용자발화문_20181018_v3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="842">
   <si>
     <t>User Speech</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3375,6 +3375,14 @@
   </si>
   <si>
     <t>최신음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨날 입는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4231,7 +4239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4241,7 +4249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5527,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -5539,7 +5547,8 @@
     <col min="4" max="4" width="8.796875" style="6"/>
     <col min="5" max="5" width="29.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="6"/>
+    <col min="7" max="7" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickTop="1" thickBot="1">
@@ -6905,7 +6914,9 @@
       <c r="F70" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G70" s="53"/>
+      <c r="G70" s="53" t="s">
+        <v>840</v>
+      </c>
       <c r="I70" s="9" t="s">
         <v>802</v>
       </c>
@@ -8228,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -10743,8 +10754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -11868,8 +11879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -11935,7 +11946,7 @@
         <v>787</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>783</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -11955,7 +11966,7 @@
         <v>231</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>787</v>
+        <v>297</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>783</v>
@@ -15194,7 +15205,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>

--- a/excel/치매케어_사용자발화문_20181018_v3.xlsx
+++ b/excel/치매케어_사용자발화문_20181018_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="19464" yWindow="1824" windowWidth="23256" windowHeight="13176" activeTab="7"/>
+    <workbookView xWindow="19464" yWindow="1824" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="소개" sheetId="2" r:id="rId1"/>
@@ -3378,11 +3378,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맨날 입는</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입는</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4239,7 +4239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4249,7 +4249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5535,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -6915,7 +6915,7 @@
         <v>325</v>
       </c>
       <c r="G70" s="53" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>802</v>
@@ -11946,7 +11946,7 @@
         <v>787</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -15204,7 +15204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
